--- a/biology/Zoologie/Deliochus/Deliochus.xlsx
+++ b/biology/Zoologie/Deliochus/Deliochus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deliochus est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deliochus est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontre en Australie et en Papouasie-Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontre en Australie et en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 19/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 19/03/2024) :
 Deliochus humilis (L. Koch, 1867)
 Deliochus idoneus (Keyserling, 1887)
 Deliochus pulcher Rainbow, 1916
@@ -576,9 +592,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1894 dans les Argiopidae. Il est placé dans les Phonognathidae par Kuntner et al. en 2023[2] puis dans les Araneidae par Hormiga et al. en 2023[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1894 dans les Argiopidae. Il est placé dans les Phonognathidae par Kuntner et al. en 2023 puis dans les Araneidae par Hormiga et al. en 2023.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1894 : Histoire naturelle des araignées. Paris, vol. 1, p. 489-760 (texte intégral).</t>
         </is>
